--- a/similarities/split_global/harmonic_similarity_timestamps_157.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_157.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:7', 'B:maj']]</t>
+          <t>['G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.320000', '0:00:09.540000')]</t>
+          <t>('0:00:07.740000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=7.74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:00:44.120000', '0:00:48.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:04:14.260000', '0:04:20.200000')]</t>
+          <t>('0:03:07.920000', '0:03:10.220000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=44.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.26']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=187.92</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'G#:min/B', 'C#:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:min', 'D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:04', '0:00:09.100000')]</t>
+          <t>('0:01:16.560000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:35.904784', '0:01:44.577437')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=4.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=95.904784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['G:maj', 'C:maj', 'G/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000'), ('0:00:01.360000', '0:00:04.740000')]</t>
+          <t>('0:00:05.146000', '0:00:09.474000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:24.620000', '0:01:31.740000'), ('0:00:30.240000', '0:00:38.500000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=1.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:10.260000', '0:00:15.940000')]</t>
+          <t>('0:01:16.560000', '0:01:27.040000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj'], ['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:7', 'C', 'D:7/C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'A'], ['A:7', 'D', 'G', 'D']]</t>
+          <t>['D:7', 'G', 'A:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:08.700000'), ('0:00:56.280000', '0:01:04.580000')]</t>
+          <t>('0:04:14.840000', '0:04:22.720000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:04.063000', '0:00:08.399000'), ('0:00:28.197000', '0:00:34.358000')]</t>
+          <t>('0:00:27.290000', '0:00:33.090000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=56.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=254.84</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=4.063', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=27.29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:54.820000', '0:01:01.800000')]</t>
+          <t>('0:00:07.560000', '0:00:16.360000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=54.82']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=7.56</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+          <t>('0:00:13.180000', '0:00:21')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000')]</t>
+          <t>('0:00:13.500000', '0:00:25.260000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_181</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb', 'Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:01:04.139886', '0:01:12.162380')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:34.866000', '0:01:03.543000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=64.139886</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:59.020000', '0:01:06.200000')]</t>
+          <t>('0:00:31.340000', '0:00:33.520000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.252358', '0:00:05.805011')]</t>
+          <t>('0:01:02.860000', '0:01:08.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=59.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=2.252358']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=62.86</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:34.860000', '0:00:39.700000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'A:7', 'D']]</t>
+          <t>['E/3', 'A:min', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A:maj', 'D:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+          <t>('0:00:12.579000', '0:00:17.703000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:09.400000')]</t>
+          <t>('0:00:07.040000', '0:00:11.460000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=12.579</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=7.04</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:11.820000', '0:00:18.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_25</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7', 'Bb:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:30.410000', '0:00:42.610000')]</t>
+          <t>('0:00:41.300000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:55.415000')]</t>
+          <t>('0:00:13.720000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=30.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:08.700000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:02.820000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
